--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56737E33-C191-4CA8-9D7D-3B54ED6AC2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAF951-6029-40E6-B9C4-6DA8873B4ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="243">
   <si>
     <t>id</t>
   </si>
@@ -886,6 +886,45 @@
   </si>
   <si>
     <t>costume86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume87</t>
+  </si>
+  <si>
+    <t>costume88</t>
+  </si>
+  <si>
+    <t>costume89</t>
+  </si>
+  <si>
+    <t>costume90</t>
+  </si>
+  <si>
+    <t>costume91</t>
+  </si>
+  <si>
+    <t>아수라 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인드라 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아드라 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머슴 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄나물 이벤트에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1270,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3313,6 +3352,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>8</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>8</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>8</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>8</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAF951-6029-40E6-B9C4-6DA8873B4ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60340B45-8B7C-4366-A14B-99453D9F3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="252">
   <si>
     <t>id</t>
   </si>
@@ -925,6 +925,38 @@
   </si>
   <si>
     <t>봄나물 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume92</t>
+  </si>
+  <si>
+    <t>도둑전에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume93</t>
+  </si>
+  <si>
+    <t>costume94</t>
+  </si>
+  <si>
+    <t>costume95</t>
+  </si>
+  <si>
+    <t>일지매 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전우치 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="C89" sqref="C89:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3467,6 +3499,98 @@
         <v>0</v>
       </c>
     </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>8</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>8</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>8</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G97" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60340B45-8B7C-4366-A14B-99453D9F3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE23F25E-3715-452D-8C1C-809DD04B2827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="264">
   <si>
     <t>id</t>
   </si>
@@ -931,10 +931,6 @@
     <t>costume92</t>
   </si>
   <si>
-    <t>도둑전에서 획득 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costume93</t>
   </si>
   <si>
@@ -957,6 +953,53 @@
   </si>
   <si>
     <t>홍길동 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume96</t>
+  </si>
+  <si>
+    <t>costume97</t>
+  </si>
+  <si>
+    <t>costume98</t>
+  </si>
+  <si>
+    <t>costume99</t>
+  </si>
+  <si>
+    <t>costume100</t>
+  </si>
+  <si>
+    <t>백호 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠노이치 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시노비 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카게 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반장 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새학기 훈련에서 획득!(이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 이벤트에서 획득!(이벤트 한정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1341,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C91"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3056,7 +3099,7 @@
         <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -3507,7 +3550,7 @@
         <v>243</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>5</v>
@@ -3516,7 +3559,7 @@
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G94" s="1">
         <v>0</v>
@@ -3527,10 +3570,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>5</v>
@@ -3539,10 +3582,10 @@
         <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3550,10 +3593,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>5</v>
@@ -3562,10 +3605,10 @@
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G96" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3573,22 +3616,137 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>8</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="1">
-        <v>8</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G97" s="1">
-        <v>3</v>
+      <c r="C98" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>8</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>8</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
+        <v>8</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
+        <v>8</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1">
+        <v>8</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE23F25E-3715-452D-8C1C-809DD04B2827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58896C4-DDCF-429F-B52A-62D99365F55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="272">
   <si>
     <t>id</t>
   </si>
@@ -1000,6 +1000,34 @@
   </si>
   <si>
     <t>크리스마스 이벤트에서 획득!(이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume101</t>
+  </si>
+  <si>
+    <t>costume102</t>
+  </si>
+  <si>
+    <t>costume103</t>
+  </si>
+  <si>
+    <t>costume104</t>
+  </si>
+  <si>
+    <t>측천무후 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항우 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조조 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진시황 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1384,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3749,6 +3777,98 @@
         <v>0</v>
       </c>
     </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>8</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1">
+        <v>8</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1">
+        <v>8</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1">
+        <v>8</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58896C4-DDCF-429F-B52A-62D99365F55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA031C3-A69A-4769-8DD4-6947CA5775FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="285">
   <si>
     <t>id</t>
   </si>
@@ -1028,6 +1028,52 @@
   </si>
   <si>
     <t>진시황 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume105</t>
+  </si>
+  <si>
+    <t>costume106</t>
+  </si>
+  <si>
+    <t>costume107</t>
+  </si>
+  <si>
+    <t>costume108</t>
+  </si>
+  <si>
+    <t>costume109</t>
+  </si>
+  <si>
+    <t>costume110</t>
+  </si>
+  <si>
+    <t>심연에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무명무사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑무사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠흑무사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타락무사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈무사 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1412,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1497,7 +1543,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1520,7 +1566,7 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1543,7 +1589,7 @@
         <v>19</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1566,7 +1612,7 @@
         <v>19</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1611,8 +1657,8 @@
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
+      <c r="G8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1634,8 +1680,8 @@
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
+      <c r="G9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1657,8 +1703,8 @@
       <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
+      <c r="G10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1680,8 +1726,8 @@
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
+      <c r="G11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1703,8 +1749,8 @@
       <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
+      <c r="G12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1726,8 +1772,8 @@
       <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
+      <c r="G13">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1750,7 +1796,7 @@
         <v>41</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1772,8 +1818,8 @@
       <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
+      <c r="G15">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1795,8 +1841,8 @@
       <c r="F16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
+      <c r="G16">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1818,8 +1864,8 @@
       <c r="F17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
+      <c r="G17">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1841,8 +1887,8 @@
       <c r="F18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
+      <c r="G18">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1864,8 +1910,8 @@
       <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
+      <c r="G19">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1887,8 +1933,8 @@
       <c r="F20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
+      <c r="G20">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1910,8 +1956,8 @@
       <c r="F21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
+      <c r="G21">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1933,8 +1979,8 @@
       <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
+      <c r="G22">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1956,8 +2002,8 @@
       <c r="F23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
+      <c r="G23">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1979,8 +2025,8 @@
       <c r="F24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
+      <c r="G24">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2002,8 +2048,8 @@
       <c r="F25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
+      <c r="G25">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2025,8 +2071,8 @@
       <c r="F26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
+      <c r="G26">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2048,8 +2094,8 @@
       <c r="F27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
+      <c r="G27">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2071,8 +2117,8 @@
       <c r="F28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
+      <c r="G28">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2094,8 +2140,8 @@
       <c r="F29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
+      <c r="G29">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2117,8 +2163,8 @@
       <c r="F30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
+      <c r="G30">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2140,8 +2186,8 @@
       <c r="F31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
+      <c r="G31">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2163,8 +2209,8 @@
       <c r="F32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
+      <c r="G32">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2186,8 +2232,8 @@
       <c r="F33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="1">
-        <v>0</v>
+      <c r="G33">
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2209,8 +2255,8 @@
       <c r="F34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
+      <c r="G34">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2232,8 +2278,8 @@
       <c r="F35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="1">
-        <v>0</v>
+      <c r="G35">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2255,8 +2301,8 @@
       <c r="F36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="1">
-        <v>0</v>
+      <c r="G36">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2278,8 +2324,8 @@
       <c r="F37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
+      <c r="G37">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2301,8 +2347,8 @@
       <c r="F38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="1">
-        <v>0</v>
+      <c r="G38">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2324,8 +2370,8 @@
       <c r="F39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="1">
-        <v>0</v>
+      <c r="G39">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2347,8 +2393,8 @@
       <c r="F40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G40" s="1">
-        <v>0</v>
+      <c r="G40">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2370,8 +2416,8 @@
       <c r="F41" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G41" s="1">
-        <v>0</v>
+      <c r="G41">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2393,8 +2439,8 @@
       <c r="F42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="1">
-        <v>0</v>
+      <c r="G42">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2416,8 +2462,8 @@
       <c r="F43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G43" s="1">
-        <v>0</v>
+      <c r="G43">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2439,8 +2485,8 @@
       <c r="F44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="1">
-        <v>0</v>
+      <c r="G44">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2462,8 +2508,8 @@
       <c r="F45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="1">
-        <v>0</v>
+      <c r="G45">
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2485,8 +2531,8 @@
       <c r="F46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="1">
-        <v>0</v>
+      <c r="G46">
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2508,8 +2554,8 @@
       <c r="F47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="1">
-        <v>0</v>
+      <c r="G47">
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2531,8 +2577,8 @@
       <c r="F48" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G48" s="1">
-        <v>0</v>
+      <c r="G48">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2554,8 +2600,8 @@
       <c r="F49" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G49" s="1">
-        <v>0</v>
+      <c r="G49">
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2577,8 +2623,8 @@
       <c r="F50" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="1">
-        <v>0</v>
+      <c r="G50">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2600,8 +2646,8 @@
       <c r="F51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G51" s="1">
-        <v>0</v>
+      <c r="G51">
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2623,8 +2669,8 @@
       <c r="F52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G52" s="1">
-        <v>0</v>
+      <c r="G52">
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2646,8 +2692,8 @@
       <c r="F53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="1">
-        <v>0</v>
+      <c r="G53">
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2669,8 +2715,8 @@
       <c r="F54" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G54" s="1">
-        <v>0</v>
+      <c r="G54">
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2692,8 +2738,8 @@
       <c r="F55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="1">
-        <v>0</v>
+      <c r="G55">
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2715,8 +2761,8 @@
       <c r="F56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="1">
-        <v>0</v>
+      <c r="G56">
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2738,8 +2784,8 @@
       <c r="F57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G57" s="1">
-        <v>0</v>
+      <c r="G57">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2761,8 +2807,8 @@
       <c r="F58" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G58" s="1">
-        <v>0</v>
+      <c r="G58">
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2784,8 +2830,8 @@
       <c r="F59" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G59" s="1">
-        <v>0</v>
+      <c r="G59">
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2807,8 +2853,8 @@
       <c r="F60" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G60" s="1">
-        <v>0</v>
+      <c r="G60">
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2830,8 +2876,8 @@
       <c r="F61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G61" s="1">
-        <v>0</v>
+      <c r="G61">
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2853,8 +2899,8 @@
       <c r="F62" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G62" s="1">
-        <v>0</v>
+      <c r="G62">
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2876,8 +2922,8 @@
       <c r="F63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="1">
-        <v>0</v>
+      <c r="G63">
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2899,8 +2945,8 @@
       <c r="F64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="1">
-        <v>0</v>
+      <c r="G64">
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2922,8 +2968,8 @@
       <c r="F65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G65" s="1">
-        <v>0</v>
+      <c r="G65">
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2945,8 +2991,8 @@
       <c r="F66" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G66" s="1">
-        <v>0</v>
+      <c r="G66">
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2968,8 +3014,8 @@
       <c r="F67" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G67" s="1">
-        <v>0</v>
+      <c r="G67">
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2991,8 +3037,8 @@
       <c r="F68" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G68" s="1">
-        <v>0</v>
+      <c r="G68">
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3014,8 +3060,8 @@
       <c r="F69" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G69" s="1">
-        <v>0</v>
+      <c r="G69">
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -3037,8 +3083,8 @@
       <c r="F70" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G70" s="1">
-        <v>0</v>
+      <c r="G70">
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3060,8 +3106,8 @@
       <c r="F71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G71" s="1">
-        <v>0</v>
+      <c r="G71">
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3083,8 +3129,8 @@
       <c r="F72" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G72" s="1">
-        <v>0</v>
+      <c r="G72">
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -3106,8 +3152,8 @@
       <c r="F73" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G73" s="1">
-        <v>0</v>
+      <c r="G73">
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3129,8 +3175,8 @@
       <c r="F74" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G74" s="1">
-        <v>0</v>
+      <c r="G74">
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3152,8 +3198,8 @@
       <c r="F75" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G75" s="1">
-        <v>0</v>
+      <c r="G75">
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3175,8 +3221,8 @@
       <c r="F76" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G76" s="1">
-        <v>0</v>
+      <c r="G76">
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3198,8 +3244,8 @@
       <c r="F77" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="1">
-        <v>0</v>
+      <c r="G77">
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3221,8 +3267,8 @@
       <c r="F78" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G78" s="1">
-        <v>0</v>
+      <c r="G78">
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3244,8 +3290,8 @@
       <c r="F79" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G79" s="1">
-        <v>0</v>
+      <c r="G79">
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3267,8 +3313,8 @@
       <c r="F80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G80" s="1">
-        <v>0</v>
+      <c r="G80">
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3290,8 +3336,8 @@
       <c r="F81" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G81" s="1">
-        <v>0</v>
+      <c r="G81">
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3313,8 +3359,8 @@
       <c r="F82" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G82" s="1">
-        <v>0</v>
+      <c r="G82">
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3336,8 +3382,8 @@
       <c r="F83" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G83" s="1">
-        <v>0</v>
+      <c r="G83">
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3359,8 +3405,8 @@
       <c r="F84" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G84" s="1">
-        <v>0</v>
+      <c r="G84">
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3382,8 +3428,8 @@
       <c r="F85" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="1">
-        <v>0</v>
+      <c r="G85">
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3405,8 +3451,8 @@
       <c r="F86" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G86" s="1">
-        <v>0</v>
+      <c r="G86">
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3428,8 +3474,8 @@
       <c r="F87" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G87" s="1">
-        <v>0</v>
+      <c r="G87">
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3451,8 +3497,8 @@
       <c r="F88" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G88" s="1">
-        <v>0</v>
+      <c r="G88">
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3474,8 +3520,8 @@
       <c r="F89" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G89" s="1">
-        <v>0</v>
+      <c r="G89">
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3497,8 +3543,8 @@
       <c r="F90" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G90" s="1">
-        <v>0</v>
+      <c r="G90">
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3520,8 +3566,8 @@
       <c r="F91" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G91" s="1">
-        <v>0</v>
+      <c r="G91">
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3543,8 +3589,8 @@
       <c r="F92" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G92" s="1">
-        <v>0</v>
+      <c r="G92">
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3566,8 +3612,8 @@
       <c r="F93" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G93" s="1">
-        <v>0</v>
+      <c r="G93">
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3589,8 +3635,8 @@
       <c r="F94" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G94" s="1">
-        <v>0</v>
+      <c r="G94">
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3612,8 +3658,8 @@
       <c r="F95" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G95" s="1">
-        <v>0</v>
+      <c r="G95">
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3635,8 +3681,8 @@
       <c r="F96" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G96" s="1">
-        <v>0</v>
+      <c r="G96">
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3658,8 +3704,8 @@
       <c r="F97" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G97" s="1">
-        <v>0</v>
+      <c r="G97">
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3681,8 +3727,8 @@
       <c r="F98" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G98" s="1">
-        <v>0</v>
+      <c r="G98">
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3704,8 +3750,8 @@
       <c r="F99" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G99" s="1">
-        <v>0</v>
+      <c r="G99">
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3727,8 +3773,8 @@
       <c r="F100" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G100" s="1">
-        <v>0</v>
+      <c r="G100">
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -3750,8 +3796,8 @@
       <c r="F101" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G101" s="1">
-        <v>0</v>
+      <c r="G101">
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3773,8 +3819,8 @@
       <c r="F102" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G102" s="1">
-        <v>0</v>
+      <c r="G102">
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -3796,8 +3842,8 @@
       <c r="F103" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G103" s="1">
-        <v>0</v>
+      <c r="G103">
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3819,8 +3865,8 @@
       <c r="F104" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G104" s="1">
-        <v>0</v>
+      <c r="G104">
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3842,8 +3888,8 @@
       <c r="F105" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G105" s="1">
-        <v>0</v>
+      <c r="G105">
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3865,8 +3911,146 @@
       <c r="F106" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G106" s="1">
-        <v>0</v>
+      <c r="G106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1">
+        <v>8</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
+        <v>8</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>8</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>8</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1">
+        <v>8</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1">
+        <v>8</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G112">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA031C3-A69A-4769-8DD4-6947CA5775FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D0DA32-6C9F-4D82-9F01-356C2631ECEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="297">
   <si>
     <t>id</t>
   </si>
@@ -1074,6 +1074,49 @@
   </si>
   <si>
     <t>어린이 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume111</t>
+  </si>
+  <si>
+    <t>costume112</t>
+  </si>
+  <si>
+    <t>costume113</t>
+  </si>
+  <si>
+    <t>costume114</t>
+  </si>
+  <si>
+    <t>어린이날이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume115</t>
+  </si>
+  <si>
+    <t>꽃놀이이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황태자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃송이 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무명왕 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1458,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4053,6 +4096,121 @@
         <v>105</v>
       </c>
     </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1">
+        <v>8</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>8</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="1">
+        <v>8</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="1">
+        <v>8</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1">
+        <v>8</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G117">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D0DA32-6C9F-4D82-9F01-356C2631ECEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7C696-1779-4D3E-A2E3-03D23FA47828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="306">
   <si>
     <t>id</t>
   </si>
@@ -1117,6 +1117,38 @@
   </si>
   <si>
     <t>무명왕 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume116</t>
+  </si>
+  <si>
+    <t>costume117</t>
+  </si>
+  <si>
+    <t>costume118</t>
+  </si>
+  <si>
+    <t>신선계에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume119</t>
+  </si>
+  <si>
+    <t>청룡 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방랑신선 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명신선 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서월신선 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1501,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4211,6 +4243,98 @@
         <v>115</v>
       </c>
     </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
+        <v>8</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>8</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>8</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1">
+        <v>8</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G121">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7C696-1779-4D3E-A2E3-03D23FA47828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478E1E03-C5E1-4915-8105-624A0053B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="315">
   <si>
     <t>id</t>
   </si>
@@ -1149,6 +1149,38 @@
   </si>
   <si>
     <t>서월신선 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume120</t>
+  </si>
+  <si>
+    <t>costume121</t>
+  </si>
+  <si>
+    <t>costume122</t>
+  </si>
+  <si>
+    <t>costume123</t>
+  </si>
+  <si>
+    <t>화영신선 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암영천선 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철이 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청명신선 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철이패스에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4335,6 +4367,98 @@
         <v>119</v>
       </c>
     </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1">
+        <v>8</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1">
+        <v>8</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
+        <v>8</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1">
+        <v>8</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G125">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478E1E03-C5E1-4915-8105-624A0053B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BA5EBA-A868-4CA6-B3B8-0809C9B527A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="331">
   <si>
     <t>id</t>
   </si>
@@ -1181,6 +1181,62 @@
   </si>
   <si>
     <t>강철이패스에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume124</t>
+  </si>
+  <si>
+    <t>costume125</t>
+  </si>
+  <si>
+    <t>costume126</t>
+  </si>
+  <si>
+    <t>혈향천선 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍랑천선 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설화천선 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume127</t>
+  </si>
+  <si>
+    <t>costume128</t>
+  </si>
+  <si>
+    <t>costume129</t>
+  </si>
+  <si>
+    <t>costume130</t>
+  </si>
+  <si>
+    <t>costume131</t>
+  </si>
+  <si>
+    <t>혈귀생왕 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀안마군 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백의귀면 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑천암귀 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1565,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4459,6 +4515,190 @@
         <v>123</v>
       </c>
     </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="1">
+        <v>8</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="1">
+        <v>8</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1">
+        <v>8</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1">
+        <v>8</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="1">
+        <v>8</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="1">
+        <v>8</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1">
+        <v>8</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1">
+        <v>8</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G133">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BA5EBA-A868-4CA6-B3B8-0809C9B527A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB43ED-A23A-46C3-921F-73A3AEE0C7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="346">
   <si>
     <t>id</t>
   </si>
@@ -1089,17 +1089,9 @@
     <t>costume114</t>
   </si>
   <si>
-    <t>어린이날이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costume115</t>
   </si>
   <si>
-    <t>꽃놀이이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황태자 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1220,23 +1212,85 @@
     <t>costume131</t>
   </si>
   <si>
-    <t>혈귀생왕 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀안마군 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백의귀면 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑천암귀 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현상수배에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume132</t>
+  </si>
+  <si>
+    <t>costume133</t>
+  </si>
+  <si>
+    <t>costume134</t>
+  </si>
+  <si>
+    <t>costume135</t>
+  </si>
+  <si>
+    <t>costume136</t>
+  </si>
+  <si>
+    <t>혈귀생왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀안마군 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백의귀면 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑천암귀 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume137</t>
+  </si>
+  <si>
+    <t>상어 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박 수확 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바캉스 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바캉스 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적면흑귀 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥혈귀비 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음혼마군 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃놀이 이벤트에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4224,7 +4278,7 @@
         <v>285</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
@@ -4247,7 +4301,7 @@
         <v>286</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
@@ -4270,7 +4324,7 @@
         <v>287</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
@@ -4293,7 +4347,7 @@
         <v>288</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
@@ -4302,7 +4356,7 @@
         <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="G116">
         <v>114</v>
@@ -4313,10 +4367,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
@@ -4325,7 +4379,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="G117">
         <v>115</v>
@@ -4336,10 +4390,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>5</v>
@@ -4348,7 +4402,7 @@
         <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G118">
         <v>116</v>
@@ -4359,19 +4413,19 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>8</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" s="1">
-        <v>8</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="G119">
         <v>117</v>
@@ -4382,10 +4436,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>5</v>
@@ -4394,7 +4448,7 @@
         <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G120">
         <v>118</v>
@@ -4405,10 +4459,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>5</v>
@@ -4428,10 +4482,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>5</v>
@@ -4440,7 +4494,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G122">
         <v>120</v>
@@ -4451,10 +4505,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>5</v>
@@ -4463,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G123">
         <v>121</v>
@@ -4474,10 +4528,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>5</v>
@@ -4486,7 +4540,7 @@
         <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G124">
         <v>122</v>
@@ -4497,19 +4551,19 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1">
+        <v>8</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" s="1">
-        <v>8</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="G125">
         <v>123</v>
@@ -4520,10 +4574,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>5</v>
@@ -4532,7 +4586,7 @@
         <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G126">
         <v>124</v>
@@ -4543,10 +4597,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>5</v>
@@ -4555,7 +4609,7 @@
         <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G127">
         <v>125</v>
@@ -4566,10 +4620,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
@@ -4578,7 +4632,7 @@
         <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G128">
         <v>126</v>
@@ -4589,10 +4643,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
@@ -4601,7 +4655,7 @@
         <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G129">
         <v>127</v>
@@ -4612,10 +4666,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>5</v>
@@ -4624,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G130">
         <v>128</v>
@@ -4635,10 +4689,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>5</v>
@@ -4647,7 +4701,7 @@
         <v>8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G131">
         <v>129</v>
@@ -4658,19 +4712,19 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1">
+        <v>8</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="1">
-        <v>8</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="G132">
         <v>130</v>
@@ -4681,10 +4735,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
@@ -4697,6 +4751,144 @@
       </c>
       <c r="G133">
         <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1">
+        <v>8</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="1">
+        <v>8</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="1">
+        <v>8</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="1">
+        <v>8</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="1">
+        <v>8</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="1">
+        <v>8</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G139">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB43ED-A23A-46C3-921F-73A3AEE0C7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522103EC-45E0-4ACB-9382-F31435E6015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -754,10 +754,6 @@
     <t>costume72</t>
   </si>
   <si>
-    <t>크리스마스 이벤트에서 획득!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costume73</t>
   </si>
   <si>
@@ -801,10 +797,6 @@
     <t>costume77</t>
   </si>
   <si>
-    <t>눈사람 이벤트에서 획득 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검은토끼 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,14 +987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새학기 훈련에서 획득!(이벤트 한정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리스마스 이벤트에서 획득!(이벤트 한정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costume101</t>
   </si>
   <si>
@@ -1172,10 +1156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강철이패스에서 획득 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costume124</t>
   </si>
   <si>
@@ -1254,14 +1234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수박 수확 이벤트에서 획득 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바캉스 이벤트에서 획득 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바캉스 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1286,11 +1258,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어린이날 이벤트에서 획득 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃놀이 이벤트에서 획득 가능!</t>
+    <t>크리스마스 이벤트에서 획득! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새학기 훈련에서 획득! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날 이벤트에서 획득 가능! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃놀이 이벤트에서 획득 가능! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박 수확 이벤트에서 획득 가능! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바캉스 이벤트에서 획득 가능! (이벤트 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철이패스에서 획득 가능! (패스 한정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈사람 이벤트에서 획득 가능! (이벤트 한정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3312,7 +3308,7 @@
         <v>191</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
@@ -3335,7 +3331,7 @@
         <v>192</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
@@ -3358,7 +3354,7 @@
         <v>193</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
@@ -3381,7 +3377,7 @@
         <v>194</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>5</v>
@@ -3390,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="G74">
         <v>72</v>
@@ -3401,10 +3397,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>5</v>
@@ -3413,7 +3409,7 @@
         <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="G75">
         <v>73</v>
@@ -3424,10 +3420,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>5</v>
@@ -3447,10 +3443,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>5</v>
@@ -3470,10 +3466,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>5</v>
@@ -3493,10 +3489,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
@@ -3505,7 +3501,7 @@
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G79">
         <v>77</v>
@@ -3516,10 +3512,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
@@ -3528,7 +3524,7 @@
         <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G80">
         <v>78</v>
@@ -3539,19 +3535,19 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1">
+        <v>8</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="1">
-        <v>8</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="G81">
         <v>79</v>
@@ -3562,10 +3558,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>5</v>
@@ -3574,7 +3570,7 @@
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G82">
         <v>80</v>
@@ -3585,11 +3581,11 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="D83" s="1" t="s">
         <v>5</v>
       </c>
@@ -3597,7 +3593,7 @@
         <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G83">
         <v>81</v>
@@ -3608,10 +3604,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>5</v>
@@ -3620,7 +3616,7 @@
         <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G84">
         <v>82</v>
@@ -3631,10 +3627,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>5</v>
@@ -3654,11 +3650,11 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
@@ -3666,7 +3662,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G86">
         <v>84</v>
@@ -3677,11 +3673,11 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D87" s="1" t="s">
         <v>5</v>
       </c>
@@ -3689,7 +3685,7 @@
         <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G87">
         <v>85</v>
@@ -3700,10 +3696,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>5</v>
@@ -3712,7 +3708,7 @@
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G88">
         <v>86</v>
@@ -3723,10 +3719,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>5</v>
@@ -3735,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G89">
         <v>87</v>
@@ -3746,10 +3742,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>5</v>
@@ -3758,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G90">
         <v>88</v>
@@ -3769,10 +3765,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>5</v>
@@ -3781,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G91">
         <v>89</v>
@@ -3792,10 +3788,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>5</v>
@@ -3804,7 +3800,7 @@
         <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G92">
         <v>90</v>
@@ -3815,10 +3811,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
@@ -3838,10 +3834,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>5</v>
@@ -3850,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G94">
         <v>92</v>
@@ -3861,10 +3857,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>5</v>
@@ -3873,7 +3869,7 @@
         <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G95">
         <v>93</v>
@@ -3884,10 +3880,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>5</v>
@@ -3896,7 +3892,7 @@
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G96">
         <v>94</v>
@@ -3907,10 +3903,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>5</v>
@@ -3919,7 +3915,7 @@
         <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G97">
         <v>95</v>
@@ -3930,10 +3926,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>5</v>
@@ -3942,7 +3938,7 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G98">
         <v>96</v>
@@ -3953,10 +3949,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>5</v>
@@ -3965,7 +3961,7 @@
         <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G99">
         <v>97</v>
@@ -3976,10 +3972,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>5</v>
@@ -3988,7 +3984,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G100">
         <v>98</v>
@@ -3999,10 +3995,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>5</v>
@@ -4011,7 +4007,7 @@
         <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="G101">
         <v>99</v>
@@ -4022,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>5</v>
@@ -4045,11 +4041,11 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="D103" s="1" t="s">
         <v>5</v>
       </c>
@@ -4057,7 +4053,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G103">
         <v>101</v>
@@ -4068,11 +4064,11 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="D104" s="1" t="s">
         <v>5</v>
       </c>
@@ -4080,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G104">
         <v>102</v>
@@ -4091,11 +4087,11 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
       </c>
@@ -4103,7 +4099,7 @@
         <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G105">
         <v>103</v>
@@ -4114,11 +4110,11 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="D106" s="1" t="s">
         <v>5</v>
       </c>
@@ -4126,7 +4122,7 @@
         <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G106">
         <v>104</v>
@@ -4137,10 +4133,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
@@ -4149,7 +4145,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G107">
         <v>106</v>
@@ -4160,10 +4156,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
@@ -4172,7 +4168,7 @@
         <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G108">
         <v>107</v>
@@ -4183,19 +4179,19 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>8</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="1">
-        <v>8</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="G109">
         <v>108</v>
@@ -4206,10 +4202,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>5</v>
@@ -4218,7 +4214,7 @@
         <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G110">
         <v>109</v>
@@ -4229,10 +4225,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>5</v>
@@ -4252,10 +4248,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>5</v>
@@ -4264,7 +4260,7 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G112">
         <v>105</v>
@@ -4275,10 +4271,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
@@ -4287,7 +4283,7 @@
         <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G113">
         <v>111</v>
@@ -4298,10 +4294,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
@@ -4310,7 +4306,7 @@
         <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G114">
         <v>112</v>
@@ -4321,10 +4317,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
@@ -4333,7 +4329,7 @@
         <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G115">
         <v>113</v>
@@ -4344,10 +4340,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
@@ -4356,7 +4352,7 @@
         <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G116">
         <v>114</v>
@@ -4367,10 +4363,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
@@ -4379,7 +4375,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G117">
         <v>115</v>
@@ -4390,10 +4386,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>5</v>
@@ -4402,7 +4398,7 @@
         <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G118">
         <v>116</v>
@@ -4413,10 +4409,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>5</v>
@@ -4425,7 +4421,7 @@
         <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G119">
         <v>117</v>
@@ -4436,10 +4432,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>5</v>
@@ -4448,7 +4444,7 @@
         <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G120">
         <v>118</v>
@@ -4459,10 +4455,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>5</v>
@@ -4482,11 +4478,11 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="D122" s="1" t="s">
         <v>5</v>
       </c>
@@ -4494,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G122">
         <v>120</v>
@@ -4505,10 +4501,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>5</v>
@@ -4517,7 +4513,7 @@
         <v>8</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G123">
         <v>121</v>
@@ -4528,10 +4524,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>5</v>
@@ -4540,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G124">
         <v>122</v>
@@ -4551,10 +4547,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>5</v>
@@ -4563,7 +4559,7 @@
         <v>8</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="G125">
         <v>123</v>
@@ -4574,10 +4570,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>5</v>
@@ -4586,7 +4582,7 @@
         <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G126">
         <v>124</v>
@@ -4597,10 +4593,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>5</v>
@@ -4609,7 +4605,7 @@
         <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G127">
         <v>125</v>
@@ -4620,10 +4616,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
@@ -4632,7 +4628,7 @@
         <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G128">
         <v>126</v>
@@ -4643,19 +4639,19 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1">
+        <v>8</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" s="1">
-        <v>8</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="G129">
         <v>127</v>
@@ -4666,10 +4662,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>5</v>
@@ -4678,7 +4674,7 @@
         <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G130">
         <v>128</v>
@@ -4689,10 +4685,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>5</v>
@@ -4701,7 +4697,7 @@
         <v>8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G131">
         <v>129</v>
@@ -4712,10 +4708,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>5</v>
@@ -4724,7 +4720,7 @@
         <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G132">
         <v>130</v>
@@ -4735,10 +4731,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
@@ -4758,10 +4754,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>5</v>
@@ -4770,7 +4766,7 @@
         <v>8</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G134">
         <v>132</v>
@@ -4781,10 +4777,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>5</v>
@@ -4793,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G135">
         <v>133</v>
@@ -4804,10 +4800,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>5</v>
@@ -4816,7 +4812,7 @@
         <v>8</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G136">
         <v>134</v>
@@ -4827,10 +4823,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>5</v>
@@ -4839,7 +4835,7 @@
         <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G137">
         <v>135</v>
@@ -4850,10 +4846,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>5</v>
@@ -4862,7 +4858,7 @@
         <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G138">
         <v>136</v>
@@ -4873,10 +4869,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>5</v>
@@ -4885,7 +4881,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G139">
         <v>137</v>
